--- a/natmiOut/OldD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.83895703369596</v>
+        <v>0.1102606666666667</v>
       </c>
       <c r="H2">
-        <v>5.83895703369596</v>
+        <v>0.330782</v>
       </c>
       <c r="I2">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="J2">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N2">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O2">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P2">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q2">
-        <v>35.20952075831221</v>
+        <v>0.8720133154617777</v>
       </c>
       <c r="R2">
-        <v>35.20952075831221</v>
+        <v>7.848119839156</v>
       </c>
       <c r="S2">
-        <v>0.01779783601136013</v>
+        <v>0.0001274115030156478</v>
       </c>
       <c r="T2">
-        <v>0.01779783601136013</v>
+        <v>0.000130578825143438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.83895703369596</v>
+        <v>0.1102606666666667</v>
       </c>
       <c r="H3">
-        <v>5.83895703369596</v>
+        <v>0.330782</v>
       </c>
       <c r="I3">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="J3">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N3">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P3">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q3">
-        <v>55.0824337301633</v>
+        <v>1.187480623411556</v>
       </c>
       <c r="R3">
-        <v>55.0824337301633</v>
+        <v>10.687325610704</v>
       </c>
       <c r="S3">
-        <v>0.02784326800030696</v>
+        <v>0.0001735050237744408</v>
       </c>
       <c r="T3">
-        <v>0.02784326800030696</v>
+        <v>0.0001778181845807776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.83895703369596</v>
+        <v>0.1102606666666667</v>
       </c>
       <c r="H4">
-        <v>5.83895703369596</v>
+        <v>0.330782</v>
       </c>
       <c r="I4">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="J4">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N4">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O4">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P4">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q4">
-        <v>109.2987413275255</v>
+        <v>2.136664534141556</v>
       </c>
       <c r="R4">
-        <v>109.2987413275255</v>
+        <v>19.229980807274</v>
       </c>
       <c r="S4">
-        <v>0.05524872342762946</v>
+        <v>0.000312192067378055</v>
       </c>
       <c r="T4">
-        <v>0.05524872342762946</v>
+        <v>0.0003199528489379872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.83895703369596</v>
+        <v>0.1102606666666667</v>
       </c>
       <c r="H5">
-        <v>5.83895703369596</v>
+        <v>0.330782</v>
       </c>
       <c r="I5">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="J5">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N5">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O5">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P5">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q5">
-        <v>176.573644531404</v>
+        <v>3.433174580108667</v>
       </c>
       <c r="R5">
-        <v>176.573644531404</v>
+        <v>30.898571220978</v>
       </c>
       <c r="S5">
-        <v>0.08925508503424368</v>
+        <v>0.0005016275848209041</v>
       </c>
       <c r="T5">
-        <v>0.08925508503424368</v>
+        <v>0.0005140975432760529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.83895703369596</v>
+        <v>0.1102606666666667</v>
       </c>
       <c r="H6">
-        <v>5.83895703369596</v>
+        <v>0.330782</v>
       </c>
       <c r="I6">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="J6">
-        <v>0.2053871751517668</v>
+        <v>0.001202219334792345</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N6">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O6">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P6">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q6">
-        <v>30.1538211628714</v>
+        <v>0.598740890214</v>
       </c>
       <c r="R6">
-        <v>30.1538211628714</v>
+        <v>3.592445341284</v>
       </c>
       <c r="S6">
-        <v>0.01524226267822657</v>
+        <v>8.748315580329747E-05</v>
       </c>
       <c r="T6">
-        <v>0.01524226267822657</v>
+        <v>5.977193285408972E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.5900674629961</v>
+        <v>6.461386</v>
       </c>
       <c r="H7">
-        <v>22.5900674629961</v>
+        <v>19.384158</v>
       </c>
       <c r="I7">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="J7">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.0301044441879</v>
+        <v>7.908652666666666</v>
       </c>
       <c r="N7">
-        <v>6.0301044441879</v>
+        <v>23.725958</v>
       </c>
       <c r="O7">
-        <v>0.086655050385735</v>
+        <v>0.1059802478036631</v>
       </c>
       <c r="P7">
-        <v>0.086655050385735</v>
+        <v>0.1086148104297394</v>
       </c>
       <c r="Q7">
-        <v>136.2204662031173</v>
+        <v>51.10085761926266</v>
       </c>
       <c r="R7">
-        <v>136.2204662031173</v>
+        <v>459.907718573364</v>
       </c>
       <c r="S7">
-        <v>0.06885721437437486</v>
+        <v>0.007466442265518659</v>
       </c>
       <c r="T7">
-        <v>0.06885721437437486</v>
+        <v>0.007652050528852158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.5900674629961</v>
+        <v>6.461386</v>
       </c>
       <c r="H8">
-        <v>22.5900674629961</v>
+        <v>19.384158</v>
       </c>
       <c r="I8">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="J8">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.43360833318156</v>
+        <v>10.76975733333333</v>
       </c>
       <c r="N8">
-        <v>9.43360833318156</v>
+        <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.135564783827095</v>
+        <v>0.1443206066922968</v>
       </c>
       <c r="P8">
-        <v>0.135564783827095</v>
+        <v>0.1479082721718924</v>
       </c>
       <c r="Q8">
-        <v>213.1058486660536</v>
+        <v>69.58755925699732</v>
       </c>
       <c r="R8">
-        <v>213.1058486660536</v>
+        <v>626.2880333129759</v>
       </c>
       <c r="S8">
-        <v>0.107721515826788</v>
+        <v>0.01016756895670719</v>
       </c>
       <c r="T8">
-        <v>0.107721515826788</v>
+        <v>0.01042032451943261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.5900674629961</v>
+        <v>6.461386</v>
       </c>
       <c r="H9">
-        <v>22.5900674629961</v>
+        <v>19.384158</v>
       </c>
       <c r="I9">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="J9">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7188809057465</v>
+        <v>19.37830233333333</v>
       </c>
       <c r="N9">
-        <v>18.7188809057465</v>
+        <v>58.134907</v>
       </c>
       <c r="O9">
-        <v>0.2689979225178228</v>
+        <v>0.2596797924831069</v>
       </c>
       <c r="P9">
-        <v>0.2689979225178228</v>
+        <v>0.2661351715768666</v>
       </c>
       <c r="Q9">
-        <v>422.8607824926029</v>
+        <v>125.2106914003673</v>
       </c>
       <c r="R9">
-        <v>422.8607824926029</v>
+        <v>1126.896222603306</v>
       </c>
       <c r="S9">
-        <v>0.2137491990901933</v>
+        <v>0.0182947692450099</v>
       </c>
       <c r="T9">
-        <v>0.2137491990901933</v>
+        <v>0.01874955885254964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.5900674629961</v>
+        <v>6.461386</v>
       </c>
       <c r="H10">
-        <v>22.5900674629961</v>
+        <v>19.384158</v>
       </c>
       <c r="I10">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="J10">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.240613779553</v>
+        <v>31.136893</v>
       </c>
       <c r="N10">
-        <v>30.240613779553</v>
+        <v>93.41067899999999</v>
       </c>
       <c r="O10">
-        <v>0.4345699042225514</v>
+        <v>0.4172513037378061</v>
       </c>
       <c r="P10">
-        <v>0.4345699042225514</v>
+        <v>0.4276237525034073</v>
       </c>
       <c r="Q10">
-        <v>683.1375054025118</v>
+        <v>201.187484513698</v>
       </c>
       <c r="R10">
-        <v>683.1375054025118</v>
+        <v>1810.687360623282</v>
       </c>
       <c r="S10">
-        <v>0.3453148191883077</v>
+        <v>0.02939588115836655</v>
       </c>
       <c r="T10">
-        <v>0.3453148191883077</v>
+        <v>0.03012663326987214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.5900674629961</v>
+        <v>6.461386</v>
       </c>
       <c r="H11">
-        <v>22.5900674629961</v>
+        <v>19.384158</v>
       </c>
       <c r="I11">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="J11">
-        <v>0.7946128248482333</v>
+        <v>0.07045126257253938</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.16424782522925</v>
+        <v>5.430231</v>
       </c>
       <c r="N11">
-        <v>5.16424782522925</v>
+        <v>10.860462</v>
       </c>
       <c r="O11">
-        <v>0.07421233904679587</v>
+        <v>0.07276804928312694</v>
       </c>
       <c r="P11">
-        <v>0.07421233904679587</v>
+        <v>0.0497179933180944</v>
       </c>
       <c r="Q11">
-        <v>116.6607067675596</v>
+        <v>35.086818560166</v>
       </c>
       <c r="R11">
-        <v>116.6607067675596</v>
+        <v>210.520911360996</v>
       </c>
       <c r="S11">
-        <v>0.05897007636856931</v>
+        <v>0.005126600946937062</v>
       </c>
       <c r="T11">
-        <v>0.05897007636856931</v>
+        <v>0.003502695401832827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>85.14262166666667</v>
+      </c>
+      <c r="H12">
+        <v>255.427865</v>
+      </c>
+      <c r="I12">
+        <v>0.9283465180926683</v>
+      </c>
+      <c r="J12">
+        <v>0.9283465180926682</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.908652666666666</v>
+      </c>
+      <c r="N12">
+        <v>23.725958</v>
+      </c>
+      <c r="O12">
+        <v>0.1059802478036631</v>
+      </c>
+      <c r="P12">
+        <v>0.1086148104297394</v>
+      </c>
+      <c r="Q12">
+        <v>673.3634218910744</v>
+      </c>
+      <c r="R12">
+        <v>6060.27079701967</v>
+      </c>
+      <c r="S12">
+        <v>0.0983863940351288</v>
+      </c>
+      <c r="T12">
+        <v>0.1008321810757438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>85.14262166666667</v>
+      </c>
+      <c r="H13">
+        <v>255.427865</v>
+      </c>
+      <c r="I13">
+        <v>0.9283465180926683</v>
+      </c>
+      <c r="J13">
+        <v>0.9283465180926682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.76975733333333</v>
+      </c>
+      <c r="N13">
+        <v>32.309272</v>
+      </c>
+      <c r="O13">
+        <v>0.1443206066922968</v>
+      </c>
+      <c r="P13">
+        <v>0.1479082721718924</v>
+      </c>
+      <c r="Q13">
+        <v>916.9653740738089</v>
+      </c>
+      <c r="R13">
+        <v>8252.688366664281</v>
+      </c>
+      <c r="S13">
+        <v>0.1339795327118152</v>
+      </c>
+      <c r="T13">
+        <v>0.137310129467879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>85.14262166666667</v>
+      </c>
+      <c r="H14">
+        <v>255.427865</v>
+      </c>
+      <c r="I14">
+        <v>0.9283465180926683</v>
+      </c>
+      <c r="J14">
+        <v>0.9283465180926682</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.37830233333333</v>
+      </c>
+      <c r="N14">
+        <v>58.134907</v>
+      </c>
+      <c r="O14">
+        <v>0.2596797924831069</v>
+      </c>
+      <c r="P14">
+        <v>0.2661351715768666</v>
+      </c>
+      <c r="Q14">
+        <v>1649.919464109284</v>
+      </c>
+      <c r="R14">
+        <v>14849.27517698355</v>
+      </c>
+      <c r="S14">
+        <v>0.2410728311707189</v>
+      </c>
+      <c r="T14">
+        <v>0.2470656598753789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>85.14262166666667</v>
+      </c>
+      <c r="H15">
+        <v>255.427865</v>
+      </c>
+      <c r="I15">
+        <v>0.9283465180926683</v>
+      </c>
+      <c r="J15">
+        <v>0.9283465180926682</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.136893</v>
+      </c>
+      <c r="N15">
+        <v>93.41067899999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4172513037378061</v>
+      </c>
+      <c r="P15">
+        <v>0.4276237525034073</v>
+      </c>
+      <c r="Q15">
+        <v>2651.076700574481</v>
+      </c>
+      <c r="R15">
+        <v>23859.69030517033</v>
+      </c>
+      <c r="S15">
+        <v>0.3873537949946186</v>
+      </c>
+      <c r="T15">
+        <v>0.3969830216902591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.14262166666667</v>
+      </c>
+      <c r="H16">
+        <v>255.427865</v>
+      </c>
+      <c r="I16">
+        <v>0.9283465180926683</v>
+      </c>
+      <c r="J16">
+        <v>0.9283465180926682</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.430231</v>
+      </c>
+      <c r="N16">
+        <v>10.860462</v>
+      </c>
+      <c r="O16">
+        <v>0.07276804928312694</v>
+      </c>
+      <c r="P16">
+        <v>0.0497179933180944</v>
+      </c>
+      <c r="Q16">
+        <v>462.344103595605</v>
+      </c>
+      <c r="R16">
+        <v>2774.06462157363</v>
+      </c>
+      <c r="S16">
+        <v>0.06755396518038659</v>
+      </c>
+      <c r="T16">
+        <v>0.04615552598340748</v>
       </c>
     </row>
   </sheetData>
